--- a/docs/IDP_UCL_VS_data_dictionary-IDP_Mapping.xlsx
+++ b/docs/IDP_UCL_VS_data_dictionary-IDP_Mapping.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_99711C2C2A6B3CB37EC9C0DF147AEBE9B8112047" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D51FF6-08E8-4A48-8797-E80E5347CF3B}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walsbr/aced/ucl-stavrinides/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69894591-8B11-C645-A5E9-720F5D2D1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_main" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet_PSA_and_reports" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet_previous_biopsy_data" sheetId="3" r:id="rId3"/>
+    <sheet name="fhir_mapping" sheetId="4" r:id="rId1"/>
+    <sheet name="sheet_main" sheetId="1" r:id="rId2"/>
+    <sheet name="sheet_PSA_and_reports" sheetId="2" r:id="rId3"/>
+    <sheet name="sheet_previous_biopsy_data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -24,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,8 +37,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{ECE78E03-640B-F645-94B9-59BC0D7E5124}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://build.fhir.org/domainresource.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6F607148-2002-6F48-9CA8-8EC6F5446ADC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://build.fhir.org/datatypes.html#Coding
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://ontoserver.csiro.au/shrimp/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{C75E6885-0579-FA42-A1C9-3FE600AB6030}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://ucum.org/ucum
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://build.fhir.org/datatypes.html#Quantity
+https://amisha.pragmaticdata.com/v3dt/report.html
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="214">
   <si>
     <t>FHIR</t>
   </si>
@@ -47,15 +206,6 @@
     <t>Original Column name</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>dtype</t>
-  </si>
-  <si>
-    <t>dtype_notes</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -510,6 +660,180 @@
   </si>
   <si>
     <t>MCCL</t>
+  </si>
+  <si>
+    <t>csv_column_name</t>
+  </si>
+  <si>
+    <t>csv_description</t>
+  </si>
+  <si>
+    <t>csv_type</t>
+  </si>
+  <si>
+    <t>csv_type_notes</t>
+  </si>
+  <si>
+    <t>fhir_resource_type</t>
+  </si>
+  <si>
+    <t>coding_system</t>
+  </si>
+  <si>
+    <t>coding_code</t>
+  </si>
+  <si>
+    <t>coding_display</t>
+  </si>
+  <si>
+    <t>coding_version</t>
+  </si>
+  <si>
+    <t>observation_subject</t>
+  </si>
+  <si>
+    <t>Patient, Specimen, Condition</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Specimen</t>
+  </si>
+  <si>
+    <t>uom_system</t>
+  </si>
+  <si>
+    <t>uom_code</t>
+  </si>
+  <si>
+    <t>uom_unit</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>mm2</t>
+  </si>
+  <si>
+    <t>square millimeter</t>
+  </si>
+  <si>
+    <t>milliliter</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>nanograms per milliliter (ng/mL)</t>
+  </si>
+  <si>
+    <t>ng/mL</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>square meters per second</t>
+  </si>
+  <si>
+    <t>m2/s</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Gleason score</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>63932-8</t>
+  </si>
+  <si>
+    <t>https://loinc.org/</t>
+  </si>
+  <si>
+    <t>Age at diagnosis</t>
+  </si>
+  <si>
+    <t>/ year</t>
+  </si>
+  <si>
+    <t>/ a</t>
+  </si>
+  <si>
+    <t>15325-4</t>
+  </si>
+  <si>
+    <t>Prostate specific Ag/Prostate volume calculated</t>
+  </si>
+  <si>
+    <t>ikert scale (assessment scale}</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct/</t>
+  </si>
+  <si>
+    <t>63476009</t>
+  </si>
+  <si>
+    <t>Prostate specific antigen measurement</t>
+  </si>
+  <si>
+    <t>399598003</t>
+  </si>
+  <si>
+    <t>Length of core in specimen obtained by needle biopsy</t>
+  </si>
+  <si>
+    <t>130564</t>
+  </si>
+  <si>
+    <t>PI-RADS v2.0</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM/</t>
+  </si>
+  <si>
+    <t>46638006</t>
+  </si>
+  <si>
+    <t>Diffusion</t>
+  </si>
+  <si>
+    <t>396199003</t>
+  </si>
+  <si>
+    <t>Tumour focality</t>
+  </si>
+  <si>
+    <t>393942000</t>
+  </si>
+  <si>
+    <t>Epithelial cell count</t>
+  </si>
+  <si>
+    <t>Lymphocyte</t>
+  </si>
+  <si>
+    <t>74765001</t>
+  </si>
+  <si>
+    <t>271036002</t>
+  </si>
+  <si>
+    <t>Lymphocyte percent differential count</t>
   </si>
 </sst>
 </file>
@@ -519,7 +843,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -531,52 +855,61 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,6 +917,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,20 +925,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -612,8 +946,40 @@
       <name val="Roboto"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +1025,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,12 +1257,295 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -889,6 +1556,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39FD2FFA-030B-3A45-A714-E71A6AA4A2A7}" name="Table1" displayName="Table1" ref="A1:M52" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M52" xr:uid="{39FD2FFA-030B-3A45-A714-E71A6AA4A2A7}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{3BAD1E53-193B-5A48-BC1C-FD7F9A197491}" name="csv_column_name" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C06184D0-25E7-EC47-9E16-9124912C3D66}" name="csv_description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2EF6A8C5-BBBF-8642-84DD-59D26B1010DF}" name="csv_type" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E7D54AD9-DA97-B345-9413-6398837A1EAD}" name="csv_type_notes" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FA7E1CD0-8A73-7140-A57A-A55B4CC4C60F}" name="fhir_resource_type" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1CF3C315-8A57-A241-9A88-C43A576327BD}" name="coding_system" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{7C932420-7637-4C4B-A1A5-533AEC37284B}" name="coding_code" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FBC52428-D627-5C4A-976D-955C495D3BEE}" name="coding_display" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{9EB84B03-FABA-594F-B285-4C3927962FB8}" name="coding_version" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{86C01ABA-391B-3440-8413-1D6CEC0BA53E}" name="observation_subject" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{3053D505-D9C0-0349-977D-FDE401778911}" name="uom_system" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{5ECA57A5-F258-C940-9C2E-5F885AFC58AF}" name="uom_code" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{08D4D246-4605-C642-83A4-CDD17F071A7A}" name="uom_unit" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1088,29 +1777,1659 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF306E1-1D33-D74E-9073-4A3E9E8DA547}">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="33">
+        <v>372278000</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="8">
+        <v>45413</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="32">
+        <v>273575009</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8">
+        <v>45413</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8">
+        <v>45413</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="32">
+        <v>372278000</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" s="32">
+        <v>372278000</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K13" r:id="rId1" xr:uid="{FB055DB2-17A5-D447-91C8-7DF54C9A0709}"/>
+    <hyperlink ref="F50" r:id="rId2" xr:uid="{3F3EA2F6-D9DA-7F4C-B3F6-32ABF2AB84CF}"/>
+    <hyperlink ref="F51" r:id="rId3" xr:uid="{C70A59FB-2EBD-684A-BD57-98579E78791C}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{45B10F95-BA72-FC47-8975-2631ADD688C5}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{473D5A5E-FADA-B346-9B3A-8E6AE4339C53}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{79F5AB8F-AF8B-6E43-9F73-5BE5BB4FB2CF}"/>
+    <hyperlink ref="F18" r:id="rId7" xr:uid="{8BCBA119-0D94-A74B-9B45-2682E7A0523D}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{3FE4D6AE-1071-8849-85CC-DE3E28E517FD}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{97391E28-C07F-F64F-876B-54C18BD2D5AC}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{7F1CA844-48D3-A649-870D-97AA1F565AC3}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{31011B4E-CC23-4840-8DEC-23610D955260}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{D452DFF8-DA00-8747-B011-571E823E2ACE}"/>
+    <hyperlink ref="F25" r:id="rId13" xr:uid="{12712DDD-26C4-A840-92F9-21489AF64232}"/>
+    <hyperlink ref="F28" r:id="rId14" xr:uid="{1FCE97E2-155C-7241-97F8-20F845F42AA8}"/>
+    <hyperlink ref="F29" r:id="rId15" xr:uid="{0710014F-2F40-1244-A902-763448BC9955}"/>
+    <hyperlink ref="F30" r:id="rId16" xr:uid="{B3E1E695-1034-1A4E-A3AA-8DCAD4997ED9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId17"/>
+  <tableParts count="1">
+    <tablePart r:id="rId18"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="12.75">
+    <row r="1" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1121,22 +3440,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1184,934 +3503,934 @@
       <c r="BA1" s="3"/>
       <c r="BB1" s="3"/>
     </row>
-    <row r="2" spans="1:54" ht="12.75">
+    <row r="2" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="24"/>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" ht="12.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="15"/>
       <c r="C3" s="24"/>
       <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:54" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" ht="12.75">
-      <c r="A4" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:54" ht="12.75">
+    <row r="5" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:54" ht="15">
+    <row r="6" spans="1:54" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:54" ht="12.75">
+    <row r="7" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="15"/>
       <c r="C7" s="24"/>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" ht="12.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="15"/>
       <c r="C8" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:54" ht="12.75">
+    <row r="9" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="24"/>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" ht="12.75">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="15"/>
       <c r="C10" s="24"/>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" ht="12.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="24"/>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:54" ht="12.75">
+    <row r="12" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:54" ht="12.75">
+    <row r="13" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:54" ht="12.75">
+    <row r="14" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:54" ht="12.75">
+    <row r="15" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="24"/>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" ht="12.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="24"/>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75">
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="15"/>
       <c r="C17" s="24"/>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75">
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G18" s="8">
         <v>45413</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75">
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G19" s="8">
         <v>45413</v>
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75">
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="15"/>
       <c r="C20" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G20" s="8">
         <v>45413</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75">
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="C21" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75">
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="15"/>
       <c r="C22" s="24"/>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75">
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
       <c r="B23" s="15"/>
       <c r="C23" s="24"/>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75">
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="15"/>
       <c r="C24" s="24"/>
       <c r="D24" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75">
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="15"/>
       <c r="C25" s="24"/>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12.75">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="15"/>
       <c r="C26" s="24"/>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75">
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="15"/>
       <c r="C27" s="24"/>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75">
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="15"/>
       <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="15"/>
       <c r="C29" s="24"/>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="12.75">
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="15"/>
       <c r="C30" s="24"/>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75">
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="15"/>
       <c r="C31" s="24"/>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75">
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="15"/>
       <c r="C32" s="24"/>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75">
+    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="15"/>
       <c r="C33" s="24"/>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75">
+    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="15"/>
       <c r="C34" s="24"/>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75">
+    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="15"/>
       <c r="C35" s="24"/>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75">
+    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="15"/>
       <c r="C36" s="24"/>
       <c r="D36" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75">
+    <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="15"/>
       <c r="C37" s="24"/>
       <c r="D37" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75">
+    <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="15"/>
       <c r="C38" s="24"/>
       <c r="D38" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75">
+    <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="15"/>
       <c r="C39" s="24"/>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75">
+    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="15"/>
       <c r="C40" s="24"/>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75">
+    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="15"/>
       <c r="C41" s="24"/>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75">
+    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="15"/>
       <c r="C42" s="24"/>
       <c r="D42" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75">
+    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="15"/>
       <c r="C43" s="24"/>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75">
+    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
       <c r="B44" s="15"/>
       <c r="C44" s="24"/>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75">
+    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
       <c r="B45" s="15"/>
       <c r="C45" s="24"/>
       <c r="D45" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75">
+    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
       <c r="B46" s="15"/>
       <c r="C46" s="24"/>
       <c r="D46" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75">
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="15"/>
       <c r="C47" s="24"/>
       <c r="D47" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75">
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
       <c r="B48" s="15"/>
       <c r="C48" s="24"/>
       <c r="D48" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75">
+    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="15"/>
       <c r="C49" s="24"/>
       <c r="D49" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75">
+    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="15"/>
       <c r="C50" s="24"/>
       <c r="D50" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75">
+    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="15"/>
       <c r="C51" s="24"/>
       <c r="D51" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75">
+    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="26"/>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2128,7 +4447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2140,17 +4459,17 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2201,116 +4520,116 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="10" t="s">
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52">
-      <c r="A5" s="10" t="s">
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="10" t="s">
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52">
-      <c r="A7" s="10" t="s">
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52">
-      <c r="A8" s="10" t="s">
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52">
-      <c r="A9" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52">
-      <c r="A10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52">
-      <c r="A11" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52">
-      <c r="A12" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52">
-      <c r="A13" s="10" t="s">
+    </row>
+    <row r="15" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52">
-      <c r="A14" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52">
-      <c r="A15" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2330,17 +4649,17 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2391,49 +4710,49 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
-      <c r="A8" s="10" t="s">
+    <row r="9" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2658,13 +4977,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA9FDD3-FFD6-4FE9-AFCD-4D29890A0C2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA9FDD3-FFD6-4FE9-AFCD-4D29890A0C2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDEA044C-0ACA-4416-A3F7-BFB93CA4148D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDEA044C-0ACA-4416-A3F7-BFB93CA4148D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C779103-5E7D-471C-B69F-43DD7CD417F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C779103-5E7D-471C-B69F-43DD7CD417F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8356f0e-69ae-4183-add8-26fde198cf5f"/>
+    <ds:schemaRef ds:uri="82bababd-4ad0-4e81-b6b3-ef3af3f58d2c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>